--- a/ProyectoWeb/9. PlanificacionSprint1.xlsx
+++ b/ProyectoWeb/9. PlanificacionSprint1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB8C3C4-FBEE-4F2D-80C3-50D768149ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFEF34-2085-419B-958E-ABDEC3D7C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1896" windowWidth="21144" windowHeight="9948" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1896" windowWidth="21144" windowHeight="9948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -945,148 +945,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1171,6 +1045,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1201,6 +1093,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1240,6 +1150,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1270,6 +1198,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1309,6 +1255,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1342,6 +1306,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1357,6 +1339,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1976,6 +1976,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,34 +2786,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,12 +3302,12 @@
       <c r="B4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="62" t="s">
         <v>67</v>
       </c>
@@ -3318,12 +3321,12 @@
       <c r="B5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="62" t="s">
         <v>70</v>
       </c>
@@ -3337,12 +3340,12 @@
       <c r="B6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="62" t="s">
         <v>71</v>
       </c>
@@ -3356,12 +3359,12 @@
       <c r="B7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="52" t="s">
         <v>72</v>
       </c>
@@ -3375,12 +3378,12 @@
       <c r="B8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="55" t="s">
         <v>72</v>
       </c>
@@ -3392,10 +3395,10 @@
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="18"/>
       <c r="H9" s="59" t="s">
         <v>56</v>
@@ -3479,12 +3482,12 @@
       <c r="B13" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="61" t="s">
         <v>70</v>
       </c>
@@ -3497,12 +3500,12 @@
       <c r="B14" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" t="s">
         <v>67</v>
       </c>
@@ -3515,12 +3518,12 @@
       <c r="B15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="62" t="s">
         <v>71</v>
       </c>
@@ -3533,12 +3536,12 @@
       <c r="B16" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="62" t="s">
         <v>72</v>
       </c>
@@ -3551,12 +3554,12 @@
       <c r="B17" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="63" t="s">
         <v>70</v>
       </c>
@@ -3567,10 +3570,10 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="64"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="64"/>
       <c r="H18" s="59" t="s">
         <v>56</v>
@@ -3613,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3891,27 +3894,27 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="73">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="67">
         <v>1</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="66">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>1</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="68" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4070,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4143,7 +4146,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>19.759999999999998</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>19</v>
+      </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
